--- a/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0D1C93-61E5-458A-A6BA-8091E21451BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F8A936-F8FE-49B6-AC36-C9D05DA9AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CD145D1A-6E8A-4706-B1C6-EA2063DCABF7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{475D82A1-0FB3-4A0A-A6C8-63D117AE207A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,75 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
@@ -100,15 +154,9 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,45%</t>
   </si>
   <si>
@@ -130,31 +178,43 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,12 +229,6 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
     <t>98,35%</t>
   </si>
   <si>
@@ -193,12 +247,6 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
     <t>1,65%</t>
   </si>
   <si>
@@ -208,54 +256,6 @@
     <t>3,85%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
     <t>99,02%</t>
   </si>
   <si>
@@ -307,6 +307,84 @@
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
     <t>96,51%</t>
   </si>
   <si>
@@ -349,52 +427,46 @@
     <t>4,61%</t>
   </si>
   <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>98,55%</t>
@@ -439,78 +511,6 @@
     <t>3,78%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
     <t>96,9%</t>
   </si>
   <si>
@@ -562,6 +562,66 @@
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
@@ -610,46 +670,28 @@
     <t>3,83%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>98,62%</t>
@@ -698,48 +740,6 @@
   </si>
   <si>
     <t>4,41%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -1167,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1AED17-62FC-4ED4-ACD2-0BEDC668603F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755F35E-0C95-489D-9EC0-5F9C1FFF381A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1285,10 +1285,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>110946</v>
+        <v>13729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1300,85 +1300,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>108179</v>
+        <v>17559</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>40</v>
+      </c>
+      <c r="N4" s="7">
+        <v>31288</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>340</v>
-      </c>
-      <c r="N4" s="7">
-        <v>219125</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>685</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1882</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2567</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,54 +1387,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1446,13 +1446,13 @@
         <v>68459</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -1461,13 +1461,13 @@
         <v>58113</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>191</v>
@@ -1476,19 +1476,19 @@
         <v>126573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1548,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1563,13 +1563,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -1578,117 +1578,117 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7">
-        <v>87839</v>
+        <v>110946</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="I10" s="7">
-        <v>95116</v>
+        <v>108179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="N10" s="7">
-        <v>182955</v>
+        <v>219125</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>685</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
-        <v>2204</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
       <c r="I11" s="7">
-        <v>873</v>
+        <v>1882</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>3077</v>
+        <v>2567</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,153 +1697,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>13729</v>
+        <v>77227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>17559</v>
+        <v>68576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="N13" s="7">
-        <v>31288</v>
+        <v>145803</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,150 +1852,150 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>77227</v>
+        <v>87839</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="7">
+        <v>123</v>
+      </c>
+      <c r="I16" s="7">
+        <v>95116</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>251</v>
+      </c>
+      <c r="N16" s="7">
+        <v>182955</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>68576</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>235</v>
-      </c>
-      <c r="N16" s="7">
-        <v>145803</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>642</v>
+        <v>2204</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>632</v>
+        <v>873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1274</v>
+        <v>3077</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>71</v>
@@ -2007,49 +2007,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,7 +2108,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -2168,13 +2168,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2183,13 +2183,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2198,13 +2198,13 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE32196-4777-4841-A5E1-DBBB7FAE0BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629594-1CDF-414E-9016-42BCBB386B07}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2343,100 +2343,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>110703</v>
+        <v>13040</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12130</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="7">
-        <v>167</v>
-      </c>
-      <c r="I4" s="7">
-        <v>110674</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25171</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>329</v>
-      </c>
-      <c r="N4" s="7">
-        <v>221378</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4003</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>760</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>760</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1925</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5928</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,54 +2445,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>112599</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227306</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2504,13 +2504,13 @@
         <v>59987</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -2519,13 +2519,13 @@
         <v>60292</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>168</v>
@@ -2534,19 +2534,19 @@
         <v>120279</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2555,13 +2555,13 @@
         <v>2215</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2570,13 +2570,13 @@
         <v>735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2585,13 +2585,13 @@
         <v>2950</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2606,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -2621,13 +2621,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -2636,117 +2636,117 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7">
-        <v>96301</v>
+        <v>110703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="7">
+        <v>167</v>
+      </c>
+      <c r="I10" s="7">
+        <v>110674</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="7">
+        <v>329</v>
+      </c>
+      <c r="N10" s="7">
+        <v>221378</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7">
-        <v>117</v>
-      </c>
-      <c r="I10" s="7">
-        <v>90513</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="7">
-        <v>248</v>
-      </c>
-      <c r="N10" s="7">
-        <v>186813</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>4003</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2464</v>
+        <v>1925</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="7">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5928</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2464</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,108 +2755,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D13" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>110</v>
+      </c>
+      <c r="I13" s="7">
+        <v>71094</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="7">
+        <v>233</v>
+      </c>
+      <c r="N13" s="7">
+        <v>150847</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12130</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>28</v>
-      </c>
-      <c r="N13" s="7">
-        <v>25171</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2865,40 +2865,40 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3403</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>760</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3403</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>760</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>142</v>
@@ -2910,78 +2910,78 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I16" s="7">
-        <v>71094</v>
+        <v>90513</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>144</v>
@@ -2993,10 +2993,10 @@
         <v>146</v>
       </c>
       <c r="M16" s="7">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="N16" s="7">
-        <v>150847</v>
+        <v>186813</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>147</v>
@@ -3011,7 +3011,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -3020,19 +3020,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>150</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>3403</v>
+        <v>2464</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>151</v>
@@ -3044,10 +3044,10 @@
         <v>153</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>3403</v>
+        <v>2464</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>154</v>
@@ -3065,49 +3065,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3124,7 @@
         <v>359784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>157</v>
@@ -3166,7 +3166,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -3175,7 +3175,7 @@
         <v>6218</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>165</v>
@@ -3226,13 +3226,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -3241,13 +3241,13 @@
         <v>353991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3256,13 +3256,13 @@
         <v>719992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3283,7 +3283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09896468-9FB6-4E7B-A54E-A8DA7E34C2D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF80BF9-E10D-40D8-9547-A386D6475B68}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,100 +3401,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>107975</v>
+        <v>15477</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>14345</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>160</v>
-      </c>
-      <c r="I4" s="7">
-        <v>103410</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>33</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29822</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" s="7">
-        <v>316</v>
-      </c>
-      <c r="N4" s="7">
-        <v>211384</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>617</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
       <c r="I5" s="7">
-        <v>3773</v>
+        <v>657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>4390</v>
+        <v>657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,54 +3503,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107183</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>215774</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3562,13 +3562,13 @@
         <v>57020</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3577,13 +3577,13 @@
         <v>55194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>156</v>
@@ -3592,19 +3592,19 @@
         <v>112214</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -3613,13 +3613,13 @@
         <v>3300</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3628,13 +3628,13 @@
         <v>644</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3643,13 +3643,13 @@
         <v>3944</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3664,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -3679,13 +3679,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -3694,117 +3694,117 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D10" s="7">
-        <v>105280</v>
+        <v>107975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>106363</v>
+        <v>103410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="N10" s="7">
-        <v>211643</v>
+        <v>211384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1477</v>
+        <v>617</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>2644</v>
+        <v>3773</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>4121</v>
+        <v>4390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,153 +3813,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>109007</v>
+        <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>215764</v>
+        <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>15477</v>
+        <v>76104</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="I13" s="7">
-        <v>14345</v>
+        <v>74202</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="N13" s="7">
-        <v>29822</v>
+        <v>150306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>657</v>
+        <v>1386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>657</v>
+        <v>2145</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,153 +3968,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7">
-        <v>76104</v>
+        <v>105280</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="I16" s="7">
-        <v>74202</v>
+        <v>106363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="N16" s="7">
-        <v>150306</v>
+        <v>211643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>759</v>
+        <v>1477</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2644</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4121</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1386</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2145</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,49 +4123,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4182,7 @@
         <v>361855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>157</v>
@@ -4224,7 +4224,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -4233,7 +4233,7 @@
         <v>6153</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>240</v>
@@ -4284,13 +4284,13 @@
         <v>368008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4299,13 +4299,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1037</v>
@@ -4314,13 +4314,13 @@
         <v>730626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32F8A936-F8FE-49B6-AC36-C9D05DA9AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CA7893-ECD2-4520-9002-1F59AA4862F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{475D82A1-0FB3-4A0A-A6C8-63D117AE207A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9279EE-A998-41A2-8861-1F4DA3E59A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,27 +106,18 @@
     <t>95,34%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>98,17%</t>
   </si>
   <si>
@@ -118,28 +127,43 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>95,4%</t>
+    <t>95,54%</t>
   </si>
   <si>
     <t>99,46%</t>
@@ -148,118 +172,124 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>96,98%</t>
+    <t>97,25%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,8%</t>
+    <t>95,04%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,42%</t>
+    <t>94,9%</t>
   </si>
   <si>
     <t>99,13%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>95,96%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>97,76%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -268,514 +298,505 @@
     <t>99,03%</t>
   </si>
   <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>96,88%</t>
   </si>
   <si>
     <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
   </si>
 </sst>
 </file>
@@ -786,7 +807,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -882,39 +903,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -966,7 +987,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1077,13 +1098,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1092,6 +1106,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1156,19 +1177,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E755F35E-0C95-489D-9EC0-5F9C1FFF381A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B091C43-1DF9-498F-A93A-31B408E7C5BD}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1285,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13729</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1300,34 +1341,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>17559</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>31288</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,10 +1377,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13729</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1351,34 +1392,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>17559</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>31288</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,13 +1434,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -1408,13 +1449,13 @@
         <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -1423,13 +1464,13 @@
         <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,49 +1481,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>68459</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>58113</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>126573</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,49 +1532,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>68459</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>58113</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>126573</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,13 +1589,13 @@
         <v>68459</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -1563,13 +1604,13 @@
         <v>58113</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>191</v>
@@ -1578,13 +1619,13 @@
         <v>126573</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,25 +1636,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>110946</v>
+        <v>685</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" s="7">
-        <v>171</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>108179</v>
+        <v>1882</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
@@ -1625,10 +1666,10 @@
         <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>219125</v>
+        <v>2567</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>35</v>
@@ -1646,25 +1687,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>685</v>
+        <v>110946</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="I11" s="7">
-        <v>1882</v>
+        <v>108179</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1676,10 +1717,10 @@
         <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="N11" s="7">
-        <v>2567</v>
+        <v>219125</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>43</v>
@@ -1703,13 +1744,13 @@
         <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>174</v>
@@ -1718,13 +1759,13 @@
         <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -1733,13 +1774,13 @@
         <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1791,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>77227</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>68576</v>
+        <v>632</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>145803</v>
+        <v>1274</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,49 +1842,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7">
-        <v>642</v>
+        <v>77227</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>632</v>
+        <v>68576</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="N14" s="7">
-        <v>1274</v>
+        <v>145803</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1899,13 @@
         <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -1873,13 +1914,13 @@
         <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>237</v>
@@ -1888,13 +1929,13 @@
         <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>87839</v>
+        <v>2204</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
@@ -1920,34 +1961,34 @@
         <v>62</v>
       </c>
       <c r="H16" s="7">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>95116</v>
+        <v>873</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="M16" s="7">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>182955</v>
+        <v>3077</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,49 +1997,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>2204</v>
+        <v>87839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="I17" s="7">
-        <v>873</v>
+        <v>95116</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="N17" s="7">
-        <v>3077</v>
+        <v>182955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2054,13 @@
         <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -2028,13 +2069,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>255</v>
@@ -2043,13 +2084,13 @@
         <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,49 +2101,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>540</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>358199</v>
+        <v>3532</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>347543</v>
+        <v>3387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6918</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M19" s="7">
-        <v>1057</v>
-      </c>
-      <c r="N19" s="7">
-        <v>705743</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,49 +2152,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>540</v>
       </c>
       <c r="D20" s="7">
-        <v>3532</v>
+        <v>358199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>517</v>
       </c>
       <c r="I20" s="7">
-        <v>3387</v>
+        <v>347543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1057</v>
+      </c>
+      <c r="N20" s="7">
+        <v>705743</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M20" s="7">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6918</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2209,13 @@
         <v>361731</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>522</v>
@@ -2183,13 +2224,13 @@
         <v>350930</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1067</v>
@@ -2198,13 +2239,18 @@
         <v>712661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2225,8 +2271,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629594-1CDF-414E-9016-42BCBB386B07}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB5F3BE-3F62-4BD3-A9AE-93C6ADB6B246}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2242,7 +2288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2343,49 +2389,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13040</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>12130</v>
+        <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>760</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="7">
-        <v>28</v>
-      </c>
-      <c r="N4" s="7">
-        <v>25171</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,49 +2440,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13040</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>760</v>
+        <v>12130</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>760</v>
+        <v>25171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2497,13 @@
         <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>15</v>
@@ -2466,13 +2512,13 @@
         <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>29</v>
@@ -2481,13 +2527,13 @@
         <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,49 +2544,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>59987</v>
+        <v>2215</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H7" s="7">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>60292</v>
+        <v>735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>120279</v>
+        <v>2950</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,49 +2595,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>2215</v>
+        <v>59987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I8" s="7">
-        <v>735</v>
+        <v>60292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="N8" s="7">
-        <v>2950</v>
+        <v>120279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2652,13 @@
         <v>62202</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>84</v>
@@ -2621,13 +2667,13 @@
         <v>61027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>172</v>
@@ -2636,13 +2682,13 @@
         <v>123229</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,49 +2699,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>110703</v>
+        <v>4003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H10" s="7">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>110674</v>
+        <v>1925</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="M10" s="7">
-        <v>329</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>221378</v>
+        <v>5928</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,49 +2750,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7">
-        <v>4003</v>
+        <v>110703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="I11" s="7">
-        <v>1925</v>
+        <v>110674</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>329</v>
       </c>
       <c r="N11" s="7">
-        <v>5928</v>
+        <v>221378</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2807,13 @@
         <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>170</v>
@@ -2776,13 +2822,13 @@
         <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>338</v>
@@ -2791,13 +2837,13 @@
         <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,49 +2854,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>79753</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>71094</v>
+        <v>3403</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>150847</v>
+        <v>3403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,49 +2905,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>79753</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>3403</v>
+        <v>71094</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="N14" s="7">
-        <v>3403</v>
+        <v>150847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2962,13 @@
         <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>115</v>
@@ -2931,13 +2977,13 @@
         <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>238</v>
@@ -2946,13 +2992,13 @@
         <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,49 +3009,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>96301</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>90513</v>
+        <v>2464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
-        <v>248</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>186813</v>
+        <v>2464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,28 +3060,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>96301</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="I17" s="7">
-        <v>2464</v>
+        <v>90513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>152</v>
@@ -3044,19 +3090,19 @@
         <v>153</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>248</v>
       </c>
       <c r="N17" s="7">
-        <v>2464</v>
+        <v>186813</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3117,13 @@
         <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -3086,13 +3132,13 @@
         <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>251</v>
@@ -3101,13 +3147,13 @@
         <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3164,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>515</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>359784</v>
+        <v>6218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>157</v>
@@ -3133,10 +3179,10 @@
         <v>158</v>
       </c>
       <c r="H19" s="7">
-        <v>491</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>344705</v>
+        <v>9286</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>159</v>
@@ -3148,10 +3194,10 @@
         <v>161</v>
       </c>
       <c r="M19" s="7">
-        <v>1006</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>704488</v>
+        <v>15504</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>162</v>
@@ -3169,49 +3215,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>515</v>
       </c>
       <c r="D20" s="7">
-        <v>6218</v>
+        <v>359784</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>491</v>
       </c>
       <c r="I20" s="7">
-        <v>9286</v>
+        <v>344705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>1006</v>
       </c>
       <c r="N20" s="7">
-        <v>15504</v>
+        <v>704488</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3272,13 @@
         <v>366002</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>504</v>
@@ -3241,13 +3287,13 @@
         <v>353991</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1028</v>
@@ -3256,13 +3302,18 @@
         <v>719992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3283,8 +3334,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF80BF9-E10D-40D8-9547-A386D6475B68}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE62A1F-18FE-4A23-ACF8-A09BE4F027AE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3300,7 +3351,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3401,10 +3452,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15477</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3416,34 +3467,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>14345</v>
+        <v>657</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>29822</v>
+        <v>657</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,10 +3503,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>15477</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -3467,34 +3518,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>657</v>
+        <v>14345</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>657</v>
+        <v>29822</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3560,13 @@
         <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3524,13 +3575,13 @@
         <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>34</v>
@@ -3539,13 +3590,13 @@
         <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3607,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>57020</v>
+        <v>3300</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>181</v>
@@ -3571,25 +3622,25 @@
         <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>55194</v>
+        <v>644</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>112214</v>
+        <v>3944</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>185</v>
@@ -3598,7 +3649,7 @@
         <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3658,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>3300</v>
+        <v>57020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>188</v>
@@ -3622,34 +3673,34 @@
         <v>189</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="I8" s="7">
-        <v>644</v>
+        <v>55194</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="N8" s="7">
-        <v>3944</v>
+        <v>112214</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3715,13 @@
         <v>60320</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>82</v>
@@ -3679,13 +3730,13 @@
         <v>55838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>161</v>
@@ -3694,13 +3745,13 @@
         <v>116158</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,49 +3762,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>107975</v>
+        <v>617</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>103410</v>
+        <v>3773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>316</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>211384</v>
+        <v>4390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,49 +3813,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="D11" s="7">
-        <v>617</v>
+        <v>107975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>3773</v>
+        <v>103410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="N11" s="7">
-        <v>4390</v>
+        <v>211384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3870,13 @@
         <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -3834,13 +3885,13 @@
         <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>323</v>
@@ -3849,13 +3900,13 @@
         <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3866,49 +3917,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>76104</v>
+        <v>759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>74202</v>
+        <v>1386</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>150306</v>
+        <v>2145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,49 +3968,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D14" s="7">
-        <v>759</v>
+        <v>76104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="I14" s="7">
-        <v>1386</v>
+        <v>74202</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="N14" s="7">
-        <v>2145</v>
+        <v>150306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +4025,13 @@
         <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>119</v>
@@ -3989,13 +4040,13 @@
         <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>230</v>
@@ -4004,13 +4055,13 @@
         <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,49 +4072,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>105280</v>
+        <v>1477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="H16" s="7">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>106363</v>
+        <v>2644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
-        <v>284</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>211643</v>
+        <v>4121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,49 +4123,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D17" s="7">
-        <v>1477</v>
+        <v>105280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="I17" s="7">
-        <v>2644</v>
+        <v>106363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="N17" s="7">
-        <v>4121</v>
+        <v>211643</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4180,13 @@
         <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -4144,13 +4195,13 @@
         <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>289</v>
@@ -4159,13 +4210,13 @@
         <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,49 +4227,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>502</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>361855</v>
+        <v>6153</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H19" s="7">
-        <v>514</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>353514</v>
+        <v>9104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
-        <v>1016</v>
+        <v>21</v>
       </c>
       <c r="N19" s="7">
-        <v>715369</v>
+        <v>15257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,49 +4278,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>502</v>
       </c>
       <c r="D20" s="7">
-        <v>6153</v>
+        <v>361855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>514</v>
       </c>
       <c r="I20" s="7">
-        <v>9104</v>
+        <v>353514</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M20" s="7">
-        <v>21</v>
+        <v>1016</v>
       </c>
       <c r="N20" s="7">
-        <v>15257</v>
+        <v>715369</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4335,13 @@
         <v>368008</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>527</v>
@@ -4299,13 +4350,13 @@
         <v>362618</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>1037</v>
@@ -4314,13 +4365,18 @@
         <v>730626</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99CA7893-ECD2-4520-9002-1F59AA4862F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06ABB77-F905-416D-8550-C1D8713D3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC9279EE-A998-41A2-8861-1F4DA3E59A2C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47924CBC-C96B-4DE9-AA97-C6CFD5F31F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="245">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,7 +106,7 @@
     <t>95,34%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,83%</t>
@@ -127,13 +127,13 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,71%</t>
@@ -142,7 +142,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>4,46%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -151,19 +151,19 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>2,75%</t>
+    <t>2,85%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>96,3%</t>
+    <t>96,49%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>95,54%</t>
+    <t>95,44%</t>
   </si>
   <si>
     <t>99,46%</t>
@@ -172,628 +172,604 @@
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,25%</t>
+    <t>97,15%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>94,53%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2015 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,88%</t>
+    <t>96,85%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -1208,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B091C43-1DF9-498F-A93A-31B408E7C5BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36B4BD-4B65-4560-983B-7B19BF322EFB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2143,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2134,13 @@
         <v>358199</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -2173,13 +2149,13 @@
         <v>347543</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>1057</v>
@@ -2188,13 +2164,13 @@
         <v>705743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,7 +2226,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB5F3BE-3F62-4BD3-A9AE-93C6ADB6B246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098511FE-EEA2-477A-800F-ACBD268BB3F7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2288,7 +2264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2401,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2410,13 +2386,13 @@
         <v>760</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2425,13 +2401,13 @@
         <v>760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2461,10 +2437,10 @@
         <v>12130</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2476,10 +2452,10 @@
         <v>25171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2550,13 +2526,13 @@
         <v>2215</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -2565,13 +2541,13 @@
         <v>735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2580,13 +2556,13 @@
         <v>2950</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,13 +2577,13 @@
         <v>59987</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>83</v>
@@ -2616,10 +2592,10 @@
         <v>60292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -2631,13 +2607,13 @@
         <v>120279</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2681,13 @@
         <v>4003</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2726,7 +2702,7 @@
         <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2735,13 +2711,13 @@
         <v>5928</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2732,13 @@
         <v>110703</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H11" s="7">
         <v>167</v>
@@ -2774,7 +2750,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>42</v>
@@ -2786,13 +2762,13 @@
         <v>221378</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2842,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -2875,13 +2851,13 @@
         <v>3403</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2890,13 +2866,13 @@
         <v>3403</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,7 +2890,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2926,13 +2902,13 @@
         <v>71094</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>233</v>
@@ -2941,13 +2917,13 @@
         <v>150847</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +2997,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3030,13 +3006,13 @@
         <v>2464</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3045,7 +3021,7 @@
         <v>2464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>149</v>
@@ -3081,13 +3057,13 @@
         <v>90513</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>248</v>
@@ -3096,13 +3072,13 @@
         <v>186813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3146,13 @@
         <v>6218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3185,13 +3161,13 @@
         <v>9286</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -3200,13 +3176,13 @@
         <v>15504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3197,13 @@
         <v>359784</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="H20" s="7">
         <v>491</v>
@@ -3313,7 +3289,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +3310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE62A1F-18FE-4A23-ACF8-A09BE4F027AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FC3BA-5D5E-4B42-A04C-A17BEF04C486}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3488,7 +3464,7 @@
         <v>657</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -3613,10 +3589,10 @@
         <v>3300</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>182</v>
@@ -3646,10 +3622,10 @@
         <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3640,13 @@
         <v>57020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>81</v>
@@ -3679,10 +3655,10 @@
         <v>55194</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3694,13 +3670,13 @@
         <v>112214</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3744,13 @@
         <v>617</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3783,13 +3759,13 @@
         <v>3773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3798,13 +3774,13 @@
         <v>4390</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,10 +3795,10 @@
         <v>107975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3834,13 +3810,13 @@
         <v>103410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>316</v>
@@ -3849,13 +3825,13 @@
         <v>211384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3899,13 @@
         <v>759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3944,7 +3920,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3953,13 +3929,13 @@
         <v>2145</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,10 +3950,10 @@
         <v>76104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3992,7 +3968,7 @@
         <v>26</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -4004,13 +3980,13 @@
         <v>150306</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4054,13 @@
         <v>1477</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4093,13 +4069,13 @@
         <v>2644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4108,13 +4084,13 @@
         <v>4121</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,10 +4105,10 @@
         <v>105280</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -4144,13 +4120,13 @@
         <v>106363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>284</v>
@@ -4159,13 +4135,13 @@
         <v>211643</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4209,13 @@
         <v>6153</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4248,13 +4224,13 @@
         <v>9104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
         <v>21</v>
@@ -4263,13 +4239,13 @@
         <v>15257</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4260,13 @@
         <v>361855</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H20" s="7">
         <v>514</v>
@@ -4299,13 +4275,13 @@
         <v>353514</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>1016</v>
@@ -4314,13 +4290,13 @@
         <v>715369</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4352,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C05-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06ABB77-F905-416D-8550-C1D8713D3478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2638799F-EA28-4521-865C-28D7B57D7C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{47924CBC-C96B-4DE9-AA97-C6CFD5F31F4E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AAA5CC16-FC3D-47B2-BC17-14ADEA962DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="228">
   <si>
     <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,682 +94,631 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>90,01%</t>
+    <t>98,26%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>Menores según su última visita al dentista fue por fundas o puentes u otro tipo de protesis en 2016 (Tasa respuesta: 48,78%)</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
     <t>99,57%</t>
   </si>
   <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
+    <t>4,75%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>95,25%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>98,65%</t>
@@ -1184,8 +1133,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36B4BD-4B65-4560-983B-7B19BF322EFB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3D4401-E6F1-4CDE-B235-DA2E8E7CB6B4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1353,10 +1302,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1368,10 +1317,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1383,10 +1332,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N5" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1404,10 +1353,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1419,10 +1368,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1434,10 +1383,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1457,49 +1406,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1882</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>685</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2567</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,49 +1457,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
-        <v>68459</v>
+        <v>108179</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>169</v>
+      </c>
+      <c r="I8" s="7">
+        <v>110946</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>87</v>
-      </c>
-      <c r="I8" s="7">
-        <v>58113</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M8" s="7">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="N8" s="7">
-        <v>126573</v>
+        <v>219125</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1559,10 +1508,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1574,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1589,10 +1538,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1606,7 +1555,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1615,46 +1564,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>685</v>
+        <v>632</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1882</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>2567</v>
+        <v>1274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,49 +1612,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>110946</v>
+        <v>68576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>108179</v>
+        <v>77227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="N11" s="7">
-        <v>219125</v>
+        <v>145803</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,10 +1663,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1729,10 +1678,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1744,10 +1693,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1761,7 +1710,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1770,46 +1719,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>642</v>
+        <v>873</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>632</v>
+        <v>2204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1274</v>
+        <v>3077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,49 +1767,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D14" s="7">
-        <v>77227</v>
+        <v>95116</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7">
-        <v>68576</v>
+        <v>87839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="N14" s="7">
-        <v>145803</v>
+        <v>182955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1884,10 +1833,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1899,10 +1848,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1916,55 +1865,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>2204</v>
+        <v>3387</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>873</v>
+        <v>3532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>3077</v>
+        <v>6918</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,49 +1922,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>128</v>
+        <v>517</v>
       </c>
       <c r="D17" s="7">
-        <v>87839</v>
+        <v>347543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
-        <v>123</v>
+        <v>540</v>
       </c>
       <c r="I17" s="7">
-        <v>95116</v>
+        <v>358199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
-        <v>251</v>
+        <v>1057</v>
       </c>
       <c r="N17" s="7">
-        <v>182955</v>
+        <v>705743</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2039,10 +1988,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2054,10 +2003,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2070,171 +2019,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3532</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3387</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6918</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>540</v>
-      </c>
-      <c r="D20" s="7">
-        <v>358199</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="7">
-        <v>517</v>
-      </c>
-      <c r="I20" s="7">
-        <v>347543</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1057</v>
-      </c>
-      <c r="N20" s="7">
-        <v>705743</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2247,8 +2040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098511FE-EEA2-477A-800F-ACBD268BB3F7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B801F5D-CBFB-4A5E-8CE8-42B61BBB0B5B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2264,7 +2057,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2365,49 +2158,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>760</v>
+        <v>2215</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>760</v>
+        <v>3709</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,49 +2209,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>13040</v>
+        <v>72424</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>73027</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="7">
+        <v>196</v>
+      </c>
+      <c r="N5" s="7">
+        <v>145450</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12130</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>28</v>
-      </c>
-      <c r="N5" s="7">
-        <v>25171</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2467,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>13040</v>
+        <v>73918</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2482,10 +2275,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>75242</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2497,10 +2290,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="N6" s="7">
-        <v>25931</v>
+        <v>149159</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2523,46 +2316,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2215</v>
+        <v>1925</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4003</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5928</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>735</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="7">
-        <v>4</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2950</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,49 +2364,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="D8" s="7">
-        <v>59987</v>
+        <v>110674</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>162</v>
+      </c>
+      <c r="I8" s="7">
+        <v>110703</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="7">
+        <v>329</v>
+      </c>
+      <c r="N8" s="7">
+        <v>221378</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="H8" s="7">
-        <v>83</v>
-      </c>
-      <c r="I8" s="7">
-        <v>60292</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="7">
-        <v>168</v>
-      </c>
-      <c r="N8" s="7">
-        <v>120279</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>62202</v>
+        <v>112599</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2637,10 +2430,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="I9" s="7">
-        <v>61027</v>
+        <v>114706</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2652,10 +2445,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="N9" s="7">
-        <v>123229</v>
+        <v>227306</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2669,55 +2462,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4003</v>
+        <v>3403</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3403</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1925</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
-      <c r="N10" s="7">
-        <v>5928</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,49 +2519,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>110703</v>
+        <v>71094</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="7">
         <v>123</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>79753</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="7">
+        <v>233</v>
+      </c>
+      <c r="N11" s="7">
+        <v>150847</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="7">
-        <v>167</v>
-      </c>
-      <c r="I11" s="7">
-        <v>110674</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="7">
-        <v>329</v>
-      </c>
-      <c r="N11" s="7">
-        <v>221378</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>114706</v>
+        <v>74497</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2792,10 +2585,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>112599</v>
+        <v>79753</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2807,10 +2600,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>227306</v>
+        <v>154250</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2824,55 +2617,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2464</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2464</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3403</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3403</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2881,49 +2674,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D14" s="7">
-        <v>79753</v>
+        <v>90513</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="7">
+        <v>131</v>
+      </c>
+      <c r="I14" s="7">
+        <v>96301</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="7">
+        <v>248</v>
+      </c>
+      <c r="N14" s="7">
+        <v>186813</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>110</v>
-      </c>
-      <c r="I14" s="7">
-        <v>71094</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" s="7">
-        <v>233</v>
-      </c>
-      <c r="N14" s="7">
-        <v>150847</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,10 +2725,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>79753</v>
+        <v>92977</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2947,10 +2740,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>74497</v>
+        <v>96301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2962,10 +2755,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2979,55 +2772,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>9286</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6218</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" s="7">
+        <v>22</v>
+      </c>
+      <c r="N16" s="7">
+        <v>15504</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2464</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2464</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,49 +2829,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>131</v>
+        <v>491</v>
       </c>
       <c r="D17" s="7">
-        <v>96301</v>
+        <v>344705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="7">
+        <v>515</v>
+      </c>
+      <c r="I17" s="7">
+        <v>359784</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>117</v>
-      </c>
-      <c r="I17" s="7">
-        <v>90513</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1006</v>
+      </c>
+      <c r="N17" s="7">
+        <v>704489</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="M17" s="7">
-        <v>248</v>
-      </c>
-      <c r="N17" s="7">
-        <v>186813</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,10 +2880,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>96301</v>
+        <v>353991</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -3102,10 +2895,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="I18" s="7">
-        <v>92977</v>
+        <v>366002</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3117,10 +2910,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>189277</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3133,171 +2926,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6218</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9286</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M19" s="7">
-        <v>22</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15504</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>515</v>
-      </c>
-      <c r="D20" s="7">
-        <v>359784</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" s="7">
-        <v>491</v>
-      </c>
-      <c r="I20" s="7">
-        <v>344705</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1006</v>
-      </c>
-      <c r="N20" s="7">
-        <v>704488</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>524</v>
-      </c>
-      <c r="D21" s="7">
-        <v>366002</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>504</v>
-      </c>
-      <c r="I21" s="7">
-        <v>353991</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1028</v>
-      </c>
-      <c r="N21" s="7">
-        <v>719992</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3310,8 +2947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FC3BA-5D5E-4B42-A04C-A17BEF04C486}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385DC2E1-23AD-42A6-A5D6-AFB480A1D20F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3327,7 +2964,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3428,49 +3065,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>657</v>
+        <v>3300</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>657</v>
+        <v>4601</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,49 +3116,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7">
-        <v>15477</v>
+        <v>69540</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>14345</v>
+        <v>72497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="N5" s="7">
-        <v>29822</v>
+        <v>142036</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,10 +3167,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>70841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3545,10 +3182,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I6" s="7">
-        <v>15002</v>
+        <v>75797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3560,10 +3197,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="N6" s="7">
-        <v>30479</v>
+        <v>146637</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3583,49 +3220,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3300</v>
+        <v>3773</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>644</v>
+        <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>3944</v>
+        <v>4390</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3271,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>57020</v>
+        <v>103410</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="I8" s="7">
-        <v>55194</v>
+        <v>107975</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="N8" s="7">
-        <v>112214</v>
+        <v>211384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D9" s="7">
-        <v>60320</v>
+        <v>107183</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3700,10 +3337,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>55838</v>
+        <v>108592</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3715,10 +3352,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="N9" s="7">
-        <v>116158</v>
+        <v>215774</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3732,55 +3369,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>617</v>
+        <v>1386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>3773</v>
+        <v>759</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>4390</v>
+        <v>2145</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,49 +3426,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="D11" s="7">
-        <v>107975</v>
+        <v>74202</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>103410</v>
+        <v>76104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>316</v>
+        <v>227</v>
       </c>
       <c r="N11" s="7">
-        <v>211384</v>
+        <v>150306</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,10 +3477,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3855,10 +3492,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>107183</v>
+        <v>76863</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3870,10 +3507,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>215774</v>
+        <v>152451</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3887,55 +3524,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>759</v>
+        <v>2644</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1386</v>
+        <v>1477</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>2145</v>
+        <v>4121</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,49 +3581,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7">
-        <v>76104</v>
+        <v>106363</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="7">
+        <v>143</v>
+      </c>
+      <c r="I14" s="7">
+        <v>105280</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>117</v>
-      </c>
-      <c r="I14" s="7">
-        <v>74202</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>227</v>
+        <v>284</v>
       </c>
       <c r="N14" s="7">
-        <v>150306</v>
+        <v>211643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,10 +3632,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>76863</v>
+        <v>109007</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4010,10 +3647,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
-        <v>75588</v>
+        <v>106757</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4025,10 +3662,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N15" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4042,55 +3679,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>1477</v>
+        <v>9104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2644</v>
+        <v>6153</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>4121</v>
+        <v>15257</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,49 +3736,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>143</v>
+        <v>514</v>
       </c>
       <c r="D17" s="7">
-        <v>105280</v>
+        <v>353514</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H17" s="7">
-        <v>141</v>
+        <v>502</v>
       </c>
       <c r="I17" s="7">
-        <v>106363</v>
+        <v>361855</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1016</v>
+      </c>
+      <c r="N17" s="7">
+        <v>715369</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="M17" s="7">
-        <v>284</v>
-      </c>
-      <c r="N17" s="7">
-        <v>211643</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="D18" s="7">
-        <v>106757</v>
+        <v>362618</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4165,10 +3802,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="I18" s="7">
-        <v>109007</v>
+        <v>368008</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4180,10 +3817,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>289</v>
+        <v>1037</v>
       </c>
       <c r="N18" s="7">
-        <v>215764</v>
+        <v>730626</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4196,171 +3833,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6153</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9104</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="7">
-        <v>21</v>
-      </c>
-      <c r="N19" s="7">
-        <v>15257</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>502</v>
-      </c>
-      <c r="D20" s="7">
-        <v>361855</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="7">
-        <v>514</v>
-      </c>
-      <c r="I20" s="7">
-        <v>353514</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="N20" s="7">
-        <v>715369</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>510</v>
-      </c>
-      <c r="D21" s="7">
-        <v>368008</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>527</v>
-      </c>
-      <c r="I21" s="7">
-        <v>362618</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1037</v>
-      </c>
-      <c r="N21" s="7">
-        <v>730626</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
